--- a/data/s_vals/2024/wingenter_trey.xlsx
+++ b/data/s_vals/2024/wingenter_trey.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.604297436535426</v>
+        <v>3.230985683306322</v>
       </c>
       <c r="C2" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4920287655081723</v>
+        <v>0.8054896365839992</v>
       </c>
       <c r="E2" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>5.74944636812674</v>
+        <v>6.201049113329182</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.52218429426656</v>
+        <v>0.6753301551942219</v>
       </c>
       <c r="C3" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4920287655081723</v>
+        <v>0.8054896365839992</v>
       </c>
       <c r="E3" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.667333225857874</v>
+        <v>3.645393585217082</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.52218429426656</v>
+        <v>0.6753301551942219</v>
       </c>
       <c r="C4" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D4" t="n">
-        <v>0.218472785105742</v>
+        <v>0.1575252929769615</v>
       </c>
       <c r="E4" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.393777245455444</v>
+        <v>2.997429241610044</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4342649883261358</v>
+        <v>0.04763786555579896</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0665966157968092</v>
+        <v>0.002777888934908601</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4920287655081723</v>
+        <v>0.8054896365839992</v>
       </c>
       <c r="E5" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1.338701676542109</v>
+        <v>1.352684601245439</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.604297436535426</v>
+        <v>3.230985683306322</v>
       </c>
       <c r="C6" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D6" t="n">
-        <v>0.218472785105742</v>
+        <v>0.1575252929769615</v>
       </c>
       <c r="E6" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>5.475890387724311</v>
+        <v>5.553084769722144</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.32444174274583</v>
+        <v>1.459612070389937</v>
       </c>
       <c r="C7" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4920287655081723</v>
+        <v>0.8054896365839992</v>
       </c>
       <c r="E7" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>4.469590674337145</v>
+        <v>4.429675500412797</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/wingenter_trey.xlsx
+++ b/data/s_vals/2024/wingenter_trey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>6.201049113329182</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>3.645393585217082</v>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>2.997429241610044</v>
       </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>1.352684601245439</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>5.553084769722144</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -613,6 +633,9 @@
       </c>
       <c r="G7" t="n">
         <v>4.429675500412797</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/wingenter_trey.xlsx
+++ b/data/s_vals/2024/wingenter_trey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
           <t>sum</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Save</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -494,9 +489,6 @@
       <c r="G2" t="n">
         <v>6.201049113329182</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -522,9 +514,6 @@
       <c r="G3" t="n">
         <v>3.645393585217082</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -550,9 +539,6 @@
       <c r="G4" t="n">
         <v>2.997429241610044</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,9 +564,6 @@
       <c r="G5" t="n">
         <v>1.352684601245439</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -606,9 +589,6 @@
       <c r="G6" t="n">
         <v>5.553084769722144</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -633,9 +613,6 @@
       </c>
       <c r="G7" t="n">
         <v>4.429675500412797</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/wingenter_trey.xlsx
+++ b/data/s_vals/2024/wingenter_trey.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.230985683306322</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C2" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8054896365839992</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E2" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>6.201049113329182</v>
+        <v>6.048734245549538</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6753301551942219</v>
+        <v>0.7287194209349384</v>
       </c>
       <c r="C3" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8054896365839992</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E3" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.645393585217082</v>
+        <v>3.594575437922795</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6753301551942219</v>
+        <v>0.7287194209349384</v>
       </c>
       <c r="C4" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1575252929769615</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E4" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.997429241610044</v>
+        <v>3.034748368925986</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -561,22 +561,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04763786555579896</v>
+        <v>0.06328177979961902</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002777888934908601</v>
+        <v>0.004309184025731883</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8054896365839992</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E5" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1.352684601245439</v>
+        <v>1.280210521914398</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -589,22 +589,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.230985683306322</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C6" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1575252929769615</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E6" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>5.553084769722144</v>
+        <v>5.488907176552729</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -617,22 +617,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.459612070389937</v>
+        <v>1.505614041169197</v>
       </c>
       <c r="C7" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8054896365839992</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E7" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>4.429675500412797</v>
+        <v>4.371470058157054</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
